--- a/Labs/L06/Lab6.xlsx
+++ b/Labs/L06/Lab6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Git\dmv\Labs\Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\OneDrive\Desktop\Magistrale\01TXASM-Data-management-and-visualization\Labs\L06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAC0F3C-28EB-41E1-A1F9-FFBA0BD9A2EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB532F18-D890-4090-AA9F-FDAB34D9817E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.Portfolio" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="4.Expenses" sheetId="5" r:id="rId4"/>
     <sheet name="5.Salaries" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
   <si>
     <t>US DOLLARS PAYABLE 08OCT15 DEU</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Clarity</t>
   </si>
   <si>
-    <t>Write your answer here.</t>
-  </si>
-  <si>
     <t>Car matriculation per brand on the Italian market.</t>
   </si>
   <si>
@@ -248,6 +245,114 @@
 Is this visualization appropriate for showing the sales trend of these three brands?
 What are the limitations of this visualization?
 How could it be re-drawn?</t>
+  </si>
+  <si>
+    <t>the data are sufficient for understanding the found composition (but title is missing)</t>
+  </si>
+  <si>
+    <t>The data here present are good for answering the question</t>
+  </si>
+  <si>
+    <t>There are no useless/Distracting elements, but the use of contrast is not good</t>
+  </si>
+  <si>
+    <t>The separation among data and legend is present, labels should be near the data alongside the percentange</t>
+  </si>
+  <si>
+    <t>impossible to understand proportionality due to the fact that area comparing is impossible, the data don't add to 100%!!!</t>
+  </si>
+  <si>
+    <t>Car sales in italy by makers in the years 2007 to 2015</t>
+  </si>
+  <si>
+    <t>Not clear at all, the usage of the 3D effect is unnecessary</t>
+  </si>
+  <si>
+    <t>The colors are okay, there are no unnecessary details</t>
+  </si>
+  <si>
+    <t>Not proportional 3d is present, the years are in reverse ordering</t>
+  </si>
+  <si>
+    <t>the y scale can be changed to remove some zeros</t>
+  </si>
+  <si>
+    <t>The data are sufficient for understanding the visualizion, however the title is not correct, and there are too few brands</t>
+  </si>
+  <si>
+    <t>what is the popularity of some programming language by the month of the year?</t>
+  </si>
+  <si>
+    <t>The data are not enough, just 3 programming language are present (CSS isn't even a programming language)</t>
+  </si>
+  <si>
+    <t>The lie factor is okay, there are no 3d effects, so i would say okay</t>
+  </si>
+  <si>
+    <t>there are no unnecessary detailts</t>
+  </si>
+  <si>
+    <t>There is no clarity in this graph:</t>
+  </si>
+  <si>
+    <t>the months should not be sorted in this order but in the month of the year order</t>
+  </si>
+  <si>
+    <t>the colors are just awful to look at</t>
+  </si>
+  <si>
+    <t>the labels are too far away from the columns</t>
+  </si>
+  <si>
+    <t>the data quality is overall pretty poor</t>
+  </si>
+  <si>
+    <t>missing title and ylabel</t>
+  </si>
+  <si>
+    <t>year is missing</t>
+  </si>
+  <si>
+    <t>What are the expensens per each departments and category</t>
+  </si>
+  <si>
+    <t>The unit of measure is missing</t>
+  </si>
+  <si>
+    <t>3d graph -&gt; lie factor not respected</t>
+  </si>
+  <si>
+    <t>no unnecessary details, too many different colours</t>
+  </si>
+  <si>
+    <t>3d makes reading and comparing too difficult</t>
+  </si>
+  <si>
+    <t>also easy grouping by department but not by type of expenses</t>
+  </si>
+  <si>
+    <t>and so is the time of observation</t>
+  </si>
+  <si>
+    <t>The yellow background poses no utility and is just annoying</t>
+  </si>
+  <si>
+    <t>What are the unit of measure</t>
+  </si>
+  <si>
+    <t>what is the observation period</t>
+  </si>
+  <si>
+    <t>idk, there is too little context to understand</t>
+  </si>
+  <si>
+    <t>no complaints</t>
+  </si>
+  <si>
+    <t>title and axis labels should be added</t>
+  </si>
+  <si>
+    <t>the legend should be closer to data</t>
   </si>
 </sst>
 </file>
@@ -374,7 +479,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -383,13 +488,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -580,7 +684,715 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7446850393700801E-2"/>
+          <c:y val="0.115740740740741"/>
+          <c:w val="0.88295494313210798"/>
+          <c:h val="0.71135826771653499"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.Salaries'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>North</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5.Salaries'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Management</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Accounting</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Human Resources</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sales</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Production</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.Salaries'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B311-4BAF-A648-B5D84337366E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.Salaries'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Center</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5.Salaries'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Management</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Accounting</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Human Resources</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sales</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Production</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.Salaries'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B311-4BAF-A648-B5D84337366E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.Salaries'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>South</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5.Salaries'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Management</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Accounting</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Human Resources</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sales</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Production</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.Salaries'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B311-4BAF-A648-B5D84337366E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2016962648"/>
+        <c:axId val="-2016959672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2016962648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2016959672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2016959672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2016962648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Invesco Global Targeted Returns Fund Class E</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.Portfolio'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>US DOLLARS PAYABLE 08OCT15 DEU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EUROS RECEIV. 16OCT15 DEU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>POUND STERLING PAYABLE 16OCT15 DEU</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CASH - EU PRINCIPAL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CONTRA FUTURE FUTURE DEC 18 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.Portfolio'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-676A-4D0E-ACB3-DEF26CFAE613}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="384063368"/>
+        <c:axId val="384068048"/>
+      </c:barChart>
+      <c:valAx>
+        <c:axId val="384068048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="384063368"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="384063368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="384068048"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1005,7 +1817,473 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Car</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> immatriculations in the italian market by the year</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19950663261686885"/>
+          <c:y val="6.0185163245420198E-2"/>
+          <c:w val="0.63773551110165283"/>
+          <c:h val="0.78364217569182903"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2.Sales'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2.Sales'!$A$5:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.Sales'!$B$5:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>329177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>281699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>294875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>363274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>549310</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>542408</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>603485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9652-40C3-BCDD-5816E253E544}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2.Sales'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2.Sales'!$A$5:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.Sales'!$C$5:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>119003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113514</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138770</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136392</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125887</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>152262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9652-40C3-BCDD-5816E253E544}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2.Sales'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ford</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2.Sales'!$A$5:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.Sales'!$D$5:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>109250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87417</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>199505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9652-40C3-BCDD-5816E253E544}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2017108072"/>
+        <c:axId val="-2017105096"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="-2017108072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2017105096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="-2017105096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>immatriculations</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> (x10000)</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2017108072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="hundredThousands"/>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8161933390082996"/>
+          <c:y val="0.40889526542324245"/>
+          <c:w val="0.10948233666737604"/>
+          <c:h val="0.37750624159784907"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1461,7 +2739,501 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Popularity in google</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> searches</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8569053286943798E-2"/>
+          <c:y val="3.7681159420289802E-2"/>
+          <c:w val="0.91724841604101803"/>
+          <c:h val="0.888850393700787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.Web trends'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Javascript</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.Web trends'!$B$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dec</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.Web trends'!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.225806451612911</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.806451612903231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.290322580645181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.033333333333346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.129032258064512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.709677419354833</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81.419354838709666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85.821428571428569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.793103448275872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCFF-420F-8C6E-1446BC369528}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.Web trends'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.Web trends'!$B$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dec</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.Web trends'!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>79.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.064516129032256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.548387096774206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.9677419354839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.032258064516128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.833333333333343</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.774193548387103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84.967741935483858</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.344827586206904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CCFF-420F-8C6E-1446BC369528}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.Web trends'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.Web trends'!$B$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dec</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.Web trends'!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>89.133333333333354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.741935483870975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.200000000000017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.580645161290349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.096774193548399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.903225806451601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.451612903225808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.290322580645153</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.035714285714292</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.827586206896555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CCFF-420F-8C6E-1446BC369528}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2016461688"/>
+        <c:axId val="-2016459896"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="-2016461688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-410]mmmmm;@" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2016459896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="-2016459896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="-2016461688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86027312293215763"/>
+          <c:y val="0.48436819617526788"/>
+          <c:w val="0.1321911711424256"/>
+          <c:h val="0.20790270419357768"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1888,7 +3660,562 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Expenses</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> per department and category</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25791469090874741"/>
+          <c:y val="2.6242125554313245E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14799449543107421"/>
+          <c:y val="5.678940611590301E-2"/>
+          <c:w val="0.73811992161738815"/>
+          <c:h val="0.78522998025823099"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.Expenses'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Research</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4.Expenses'!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Salary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Facility</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Travel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Consumable</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Software</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4.Expenses'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-297D-4BF1-9A7A-0F5D9FBFE790}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.Expenses'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4.Expenses'!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Salary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Facility</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Travel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Consumable</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Software</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4.Expenses'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-297D-4BF1-9A7A-0F5D9FBFE790}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.Expenses'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Management</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4.Expenses'!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Salary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Facility</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Travel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Consumable</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Software</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4.Expenses'!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-297D-4BF1-9A7A-0F5D9FBFE790}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.Expenses'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accounting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4.Expenses'!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Salary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Facility</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Travel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Consumable</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Software</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4.Expenses'!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-297D-4BF1-9A7A-0F5D9FBFE790}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2017009608"/>
+        <c:axId val="-2017006488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2017009608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Category</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2017006488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2017006488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>expenses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2017009608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80812879476184574"/>
+          <c:y val="0.10196388215673904"/>
+          <c:w val="0.14814743631819977"/>
+          <c:h val="0.18981363338345511"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2221,6 +4548,562 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2254,6 +5137,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109009</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417F6F5C-0F5F-43C4-A67F-CDB1DEC58FAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2300,6 +5221,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5836260A-915F-493D-94B5-2F8BD2BB3703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2336,6 +5295,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D58C38E-8D26-45EE-90EB-FEF7CB76FEF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2382,6 +5379,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>241747</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>92287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A50387-C2E3-4DEC-BF86-60780EC510F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2418,6 +5453,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39636220-45D9-4802-96A8-7FD91804EF3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2750,92 +5823,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="37.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1">
         <v>0.20399999999999999</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>0.16700000000000001</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>0.15</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2843,64 +5914,70 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <f>SUM(B4:B8)</f>
+        <v>0.83500000000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D27" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D28" s="2"/>
       <c r="E28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D30" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D31" s="2"/>
       <c r="E31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D34" s="2"/>
       <c r="E34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D36" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2923,38 +6000,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="4" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="5.8984375" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" customWidth="1"/>
+    <col min="3" max="4" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -2967,12 +6046,12 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -2985,12 +6064,12 @@
       <c r="D5">
         <v>109250</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -3003,12 +6082,12 @@
       <c r="D6">
         <v>91541</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -3021,12 +6100,12 @@
       <c r="D7">
         <v>87417</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -3040,7 +6119,7 @@
         <v>98997</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2011</v>
       </c>
@@ -3054,7 +6133,7 @@
         <v>146764</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -3068,7 +6147,7 @@
         <v>182331</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -3082,7 +6161,7 @@
         <v>210705</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2008</v>
       </c>
@@ -3096,7 +6175,7 @@
         <v>169800</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2007</v>
       </c>
@@ -3110,64 +6189,67 @@
         <v>199505</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F28" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F29" s="2"/>
       <c r="G29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F31" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F32" s="2"/>
       <c r="G32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F34" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F35" s="2"/>
       <c r="G35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F37" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F38" s="2"/>
       <c r="G38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F40" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G41" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3187,28 +6269,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView topLeftCell="G11" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="13" width="6.125" customWidth="1"/>
+    <col min="2" max="13" width="6.09765625" customWidth="1"/>
     <col min="14" max="19" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
@@ -3245,17 +6329,17 @@
       <c r="M4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -3295,15 +6379,15 @@
       <c r="M5" s="4">
         <v>90.793103448275872</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -3343,15 +6427,15 @@
       <c r="M6" s="4">
         <v>90.344827586206904</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -3391,90 +6475,120 @@
       <c r="M7" s="4">
         <v>90.827586206896555</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-    </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H29" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H30" s="2"/>
       <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H32" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H33" s="2"/>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36" s="2"/>
       <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39" s="2"/>
       <c r="I39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H41" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:9" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3497,30 +6611,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G2" s="11" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -3536,13 +6652,13 @@
       <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3558,13 +6674,13 @@
       <c r="E4">
         <v>24</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -3580,13 +6696,13 @@
       <c r="E5">
         <v>6</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -3602,13 +6718,13 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -3625,7 +6741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3642,7 +6758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -3659,64 +6775,74 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G34" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G35" s="2"/>
       <c r="H35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G37" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G38" s="2"/>
       <c r="H38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G40" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G41" s="2"/>
       <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G43" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G44" s="2"/>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G46" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:8" x14ac:dyDescent="0.3">
       <c r="H47" t="s">
-        <v>57</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3736,19 +6862,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3762,7 +6890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -3775,15 +6903,15 @@
       <c r="D2">
         <v>84</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -3796,13 +6924,13 @@
       <c r="D3">
         <v>60</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -3815,13 +6943,13 @@
       <c r="D4">
         <v>62</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -3834,13 +6962,13 @@
       <c r="D5">
         <v>65</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3859,64 +6987,74 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F23" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F24" s="2"/>
       <c r="G24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F26" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F27" s="2"/>
       <c r="G27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F29" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F30" s="2"/>
       <c r="G30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F32" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F33" s="2"/>
       <c r="G33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F35" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
-        <v>57</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
